--- a/testing-maven/selenium-maven-excel-googleSearch/src/test/resources/testData.xlsx
+++ b/testing-maven/selenium-maven-excel-googleSearch/src/test/resources/testData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10766334-CA8E-4853-86C2-A230601E0EB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{DA2BFEDB-2924-400E-B6DF-B6B2DB689EDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9732" windowHeight="4056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Item</t>
   </si>
@@ -38,6 +39,9 @@
   </si>
   <si>
     <t>VBScript</t>
+  </si>
+  <si>
+    <t>Phyton</t>
   </si>
 </sst>
 </file>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,6 +408,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
